--- a/Employee_Reports29/James Kariungi Muthee Q0525.xlsx
+++ b/Employee_Reports29/James Kariungi Muthee Q0525.xlsx
@@ -18,13 +18,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
@@ -68,7 +72,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -559,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -608,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -657,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -706,11 +710,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -755,11 +759,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -804,11 +808,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -853,11 +857,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -881,8 +885,10 @@
           <t>ELECTRICAL SAFETY</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n">
-        <v/>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>LSME-OHS-SOP-021</t>
+        </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
@@ -900,11 +906,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -928,8 +934,10 @@
           <t>IMS</t>
         </is>
       </c>
-      <c r="D11" s="3" t="n">
-        <v/>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-021</t>
+        </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
@@ -947,11 +955,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -975,8 +983,10 @@
           <t>IMS</t>
         </is>
       </c>
-      <c r="D12" s="3" t="n">
-        <v/>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
@@ -994,11 +1004,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1031,11 +1041,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
